--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H2">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I2">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J2">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.437025499999999</v>
+        <v>33.9967575</v>
       </c>
       <c r="N2">
-        <v>10.874051</v>
+        <v>67.993515</v>
       </c>
       <c r="O2">
-        <v>0.0412690981875492</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P2">
-        <v>0.0335329617600088</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q2">
-        <v>128.9637682948847</v>
+        <v>1437.219790657515</v>
       </c>
       <c r="R2">
-        <v>515.8550731795389</v>
+        <v>5748.879162630059</v>
       </c>
       <c r="S2">
-        <v>0.008495168536304524</v>
+        <v>0.0511308486597813</v>
       </c>
       <c r="T2">
-        <v>0.005764779305940728</v>
+        <v>0.04307316177463714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H3">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I3">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J3">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.07421266666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
         <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3193593286815545</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P3">
-        <v>0.3892403018250912</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q3">
-        <v>997.9811596494636</v>
+        <v>1778.695839474291</v>
       </c>
       <c r="R3">
-        <v>5987.886957896781</v>
+        <v>10672.17503684575</v>
       </c>
       <c r="S3">
-        <v>0.06573953490482103</v>
+        <v>0.06327927598209289</v>
       </c>
       <c r="T3">
-        <v>0.06691578432762987</v>
+        <v>0.07996068604771295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H4">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I4">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J4">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01285266666666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N4">
-        <v>0.038558</v>
+        <v>0.329168</v>
       </c>
       <c r="O4">
-        <v>9.755664427884464E-05</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P4">
-        <v>0.0001189036118685133</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q4">
-        <v>0.3048593989436666</v>
+        <v>4.638547897312</v>
       </c>
       <c r="R4">
-        <v>1.829156393662</v>
+        <v>27.831287383872</v>
       </c>
       <c r="S4">
-        <v>2.008185716147122E-05</v>
+        <v>0.0001650220043450015</v>
       </c>
       <c r="T4">
-        <v>2.044117325534546E-05</v>
+        <v>0.0002085243940548413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H5">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I5">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J5">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.52055350000001</v>
+        <v>119.609489</v>
       </c>
       <c r="N5">
-        <v>131.041107</v>
+        <v>239.218978</v>
       </c>
       <c r="O5">
-        <v>0.4973260021852153</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P5">
-        <v>0.4040993030123017</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q5">
-        <v>1554.117684407881</v>
+        <v>5056.515308591777</v>
       </c>
       <c r="R5">
-        <v>6216.470737631523</v>
+        <v>20226.06123436711</v>
       </c>
       <c r="S5">
-        <v>0.1023736498154105</v>
+        <v>0.1798917052702092</v>
       </c>
       <c r="T5">
-        <v>0.06947025187404077</v>
+        <v>0.1515426543098612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H6">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I6">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J6">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.57371366666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N6">
-        <v>55.721141</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O6">
-        <v>0.1409815740273963</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P6">
-        <v>0.1718306167937836</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q6">
-        <v>440.5600278467581</v>
+        <v>7.229299101477998</v>
       </c>
       <c r="R6">
-        <v>2643.360167080549</v>
+        <v>43.37579460886799</v>
       </c>
       <c r="S6">
-        <v>0.02902079968971932</v>
+        <v>0.0002571911413110011</v>
       </c>
       <c r="T6">
-        <v>0.02954005646471637</v>
+        <v>0.0003249907617533675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7195445</v>
+        <v>11.028824</v>
       </c>
       <c r="H7">
-        <v>47.439089</v>
+        <v>33.086472</v>
       </c>
       <c r="I7">
-        <v>0.205848174769845</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J7">
-        <v>0.1719138126598697</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1273243333333333</v>
+        <v>33.9967575</v>
       </c>
       <c r="N7">
-        <v>0.381973</v>
+        <v>67.993515</v>
       </c>
       <c r="O7">
-        <v>0.0009664402740059944</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P7">
-        <v>0.001177912996946202</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q7">
-        <v>3.020075190432833</v>
+        <v>374.94425503818</v>
       </c>
       <c r="R7">
-        <v>18.120451142597</v>
+        <v>2249.66553022908</v>
       </c>
       <c r="S7">
-        <v>0.0001989399664282029</v>
+        <v>0.01333909961777034</v>
       </c>
       <c r="T7">
-        <v>0.0002024995142866351</v>
+        <v>0.01685549558116839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J8">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.437025499999999</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N8">
-        <v>10.874051</v>
+        <v>126.222638</v>
       </c>
       <c r="O8">
-        <v>0.0412690981875492</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P8">
-        <v>0.0335329617600088</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q8">
-        <v>59.96399732301199</v>
+        <v>464.0290864392373</v>
       </c>
       <c r="R8">
-        <v>359.7839839380719</v>
+        <v>4176.261777953136</v>
       </c>
       <c r="S8">
-        <v>0.003949979673397194</v>
+        <v>0.01650840125267597</v>
       </c>
       <c r="T8">
-        <v>0.004020654972783886</v>
+        <v>0.03129041228494243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J9">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>42.07421266666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N9">
-        <v>126.222638</v>
+        <v>0.329168</v>
       </c>
       <c r="O9">
-        <v>0.3193593286815545</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P9">
-        <v>0.3892403018250912</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q9">
-        <v>464.0290864392373</v>
+        <v>1.210111979477333</v>
       </c>
       <c r="R9">
-        <v>4176.261777953137</v>
+        <v>10.891007815296</v>
       </c>
       <c r="S9">
-        <v>0.03056676574489564</v>
+        <v>4.30512110160528E-05</v>
       </c>
       <c r="T9">
-        <v>0.04667052574542831</v>
+        <v>8.160027863630873E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J10">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01285266666666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N10">
-        <v>0.038558</v>
+        <v>239.218978</v>
       </c>
       <c r="O10">
-        <v>9.755664427884464E-05</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P10">
-        <v>0.0001189036118685133</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q10">
-        <v>0.1417497985973333</v>
+        <v>1319.152002910936</v>
       </c>
       <c r="R10">
-        <v>1.275748187376</v>
+        <v>7914.912017465615</v>
       </c>
       <c r="S10">
-        <v>9.337416586014358E-06</v>
+        <v>0.04693044296949806</v>
       </c>
       <c r="T10">
-        <v>1.425673048991596E-05</v>
+        <v>0.05930204412304053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J11">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>65.52055350000001</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N11">
-        <v>131.041107</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O11">
-        <v>0.4973260021852153</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P11">
-        <v>0.4040993030123017</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q11">
-        <v>722.6146529340841</v>
+        <v>1.885991400669333</v>
       </c>
       <c r="R11">
-        <v>4335.687917604504</v>
+        <v>16.973922606024</v>
       </c>
       <c r="S11">
-        <v>0.04760044890625093</v>
+        <v>6.70964465617021E-05</v>
       </c>
       <c r="T11">
-        <v>0.04845214340990818</v>
+        <v>0.0001271761840311427</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.028824</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H12">
-        <v>33.086472</v>
+        <v>5.685935</v>
       </c>
       <c r="I12">
-        <v>0.09571276928432844</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J12">
-        <v>0.1199015762925807</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.57371366666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N12">
-        <v>55.721141</v>
+        <v>67.993515</v>
       </c>
       <c r="O12">
-        <v>0.1409815740273963</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P12">
-        <v>0.1718306167937836</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q12">
-        <v>204.8462190560613</v>
+        <v>64.4344511185875</v>
       </c>
       <c r="R12">
-        <v>1843.615971504552</v>
+        <v>386.606706711525</v>
       </c>
       <c r="S12">
-        <v>0.01349373686822565</v>
+        <v>0.002292334262328331</v>
       </c>
       <c r="T12">
-        <v>0.02060276180890104</v>
+        <v>0.002896629542953709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.028824</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H13">
-        <v>33.086472</v>
+        <v>5.685935</v>
       </c>
       <c r="I13">
-        <v>0.09571276928432844</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J13">
-        <v>0.1199015762925807</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1273243333333333</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N13">
-        <v>0.381973</v>
+        <v>126.222638</v>
       </c>
       <c r="O13">
-        <v>0.0009664402740059944</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P13">
-        <v>0.001177912996946202</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q13">
-        <v>1.404237663250667</v>
+        <v>79.74374613294776</v>
       </c>
       <c r="R13">
-        <v>12.638138969256</v>
+        <v>717.6937151965299</v>
       </c>
       <c r="S13">
-        <v>9.25006749730189E-05</v>
+        <v>0.002836981122575842</v>
       </c>
       <c r="T13">
-        <v>0.0001412336250693674</v>
+        <v>0.005377280792445448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H14">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I14">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J14">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.437025499999999</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N14">
-        <v>10.874051</v>
+        <v>0.329168</v>
       </c>
       <c r="O14">
-        <v>0.0412690981875492</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P14">
-        <v>0.0335329617600088</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q14">
-        <v>29.11978428366499</v>
+        <v>0.2079586502311111</v>
       </c>
       <c r="R14">
-        <v>174.71870570199</v>
+        <v>1.87162785208</v>
       </c>
       <c r="S14">
-        <v>0.001918193601980673</v>
+        <v>7.39838286501384E-06</v>
       </c>
       <c r="T14">
-        <v>0.001952515020902058</v>
+        <v>1.402306901466981E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H15">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I15">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J15">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.07421266666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N15">
-        <v>126.222638</v>
+        <v>239.218978</v>
       </c>
       <c r="O15">
-        <v>0.3193593286815545</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P15">
-        <v>0.3892403018250912</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q15">
-        <v>225.3423304265133</v>
+        <v>226.6972599457383</v>
       </c>
       <c r="R15">
-        <v>2028.08097383862</v>
+        <v>1360.18355967443</v>
       </c>
       <c r="S15">
-        <v>0.01484386739506265</v>
+        <v>0.008065031782348174</v>
       </c>
       <c r="T15">
-        <v>0.02266419356253552</v>
+        <v>0.01019110070879544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H16">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I16">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J16">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01285266666666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N16">
-        <v>0.038558</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O16">
-        <v>9.755664427884464E-05</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P16">
-        <v>0.0001189036118685133</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q16">
-        <v>0.06883669771333333</v>
+        <v>0.3241090350994444</v>
       </c>
       <c r="R16">
-        <v>0.6195302794199999</v>
+        <v>2.916981315895</v>
       </c>
       <c r="S16">
-        <v>4.534446816258313E-06</v>
+        <v>1.153057460707239E-05</v>
       </c>
       <c r="T16">
-        <v>6.923369604937622E-06</v>
+        <v>2.185532250005729E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35583</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H17">
-        <v>16.06749</v>
+        <v>161.423172</v>
       </c>
       <c r="I17">
-        <v>0.04648014340568721</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J17">
-        <v>0.05822673925661452</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.52055350000001</v>
+        <v>33.9967575</v>
       </c>
       <c r="N17">
-        <v>131.041107</v>
+        <v>67.993515</v>
       </c>
       <c r="O17">
-        <v>0.4973260021852153</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P17">
-        <v>0.4040993030123017</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q17">
-        <v>350.916946051905</v>
+        <v>2743.932216682395</v>
       </c>
       <c r="R17">
-        <v>2105.50167631143</v>
+        <v>10975.72886672958</v>
       </c>
       <c r="S17">
-        <v>0.02311578390094592</v>
+        <v>0.09761873849489647</v>
       </c>
       <c r="T17">
-        <v>0.02352938475027696</v>
+        <v>0.08223504646685163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35583</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H18">
-        <v>16.06749</v>
+        <v>161.423172</v>
       </c>
       <c r="I18">
-        <v>0.04648014340568721</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J18">
-        <v>0.05822673925661452</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.57371366666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N18">
-        <v>55.721141</v>
+        <v>126.222638</v>
       </c>
       <c r="O18">
-        <v>0.1409815740273963</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P18">
-        <v>0.1718306167937836</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q18">
-        <v>99.47765286734334</v>
+        <v>3395.876434027956</v>
       </c>
       <c r="R18">
-        <v>895.29887580609</v>
+        <v>20375.25860416774</v>
       </c>
       <c r="S18">
-        <v>0.006552843778352886</v>
+        <v>0.1208124499427921</v>
       </c>
       <c r="T18">
-        <v>0.01000513652035488</v>
+        <v>0.1526605074189589</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35583</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H19">
-        <v>16.06749</v>
+        <v>161.423172</v>
       </c>
       <c r="I19">
-        <v>0.04648014340568721</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J19">
-        <v>0.05822673925661452</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1273243333333333</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N19">
-        <v>0.381973</v>
+        <v>0.329168</v>
       </c>
       <c r="O19">
-        <v>0.0009664402740059944</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P19">
-        <v>0.001177912996946202</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q19">
-        <v>0.6819274841966667</v>
+        <v>8.855890446816002</v>
       </c>
       <c r="R19">
-        <v>6.13734735777</v>
+        <v>53.13534268089601</v>
       </c>
       <c r="S19">
-        <v>4.492028252883026E-05</v>
+        <v>0.0003150591142198201</v>
       </c>
       <c r="T19">
-        <v>6.858603294016387E-05</v>
+        <v>0.0003981136403287964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H20">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I20">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J20">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.437025499999999</v>
+        <v>119.609489</v>
       </c>
       <c r="N20">
-        <v>10.874051</v>
+        <v>239.218978</v>
       </c>
       <c r="O20">
-        <v>0.0412690981875492</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P20">
-        <v>0.0335329617600088</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q20">
-        <v>250.2040814747672</v>
+        <v>9653.871557839555</v>
       </c>
       <c r="R20">
-        <v>1000.816325899069</v>
+        <v>38615.48623135822</v>
       </c>
       <c r="S20">
-        <v>0.01648157361328998</v>
+        <v>0.3434482664471514</v>
       </c>
       <c r="T20">
-        <v>0.01118431424746803</v>
+        <v>0.289324412358778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H21">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I21">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J21">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>42.07421266666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N21">
-        <v>126.222638</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O21">
-        <v>0.3193593286815545</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P21">
-        <v>0.3892403018250912</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q21">
-        <v>1936.194659016654</v>
+        <v>13.802138571654</v>
       </c>
       <c r="R21">
-        <v>11617.16795409992</v>
+        <v>82.812831429924</v>
       </c>
       <c r="S21">
-        <v>0.1275420233520856</v>
+        <v>0.0004910279298100344</v>
       </c>
       <c r="T21">
-        <v>0.1298240783068242</v>
+        <v>0.0006204705968397842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.01855949999999</v>
+        <v>1.45427</v>
       </c>
       <c r="H22">
-        <v>92.03711899999999</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I22">
-        <v>0.3993683975934914</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J22">
-        <v>0.33353195364945</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01285266666666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N22">
-        <v>0.038558</v>
+        <v>67.993515</v>
       </c>
       <c r="O22">
-        <v>9.755664427884464E-05</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P22">
-        <v>0.0001189036118685133</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q22">
-        <v>0.5914612057336666</v>
+        <v>49.44046452952501</v>
       </c>
       <c r="R22">
-        <v>3.548767234401999</v>
+        <v>296.6427871771501</v>
       </c>
       <c r="S22">
-        <v>3.896104070024043E-05</v>
+        <v>0.001758904884250114</v>
       </c>
       <c r="T22">
-        <v>3.965815396248119E-05</v>
+        <v>0.002222579810760037</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.01855949999999</v>
+        <v>1.45427</v>
       </c>
       <c r="H23">
-        <v>92.03711899999999</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I23">
-        <v>0.3993683975934914</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J23">
-        <v>0.33353195364945</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>65.52055350000001</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N23">
-        <v>131.041107</v>
+        <v>126.222638</v>
       </c>
       <c r="O23">
-        <v>0.4973260021852153</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P23">
-        <v>0.4040993030123017</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q23">
-        <v>3015.161489712683</v>
+        <v>61.18726525475333</v>
       </c>
       <c r="R23">
-        <v>12060.64595885073</v>
+        <v>550.68538729278</v>
       </c>
       <c r="S23">
-        <v>0.1986162885742866</v>
+        <v>0.002176811660946724</v>
       </c>
       <c r="T23">
-        <v>0.1347800300020741</v>
+        <v>0.004125980056769718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.01855949999999</v>
+        <v>1.45427</v>
       </c>
       <c r="H24">
-        <v>92.03711899999999</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I24">
-        <v>0.3993683975934914</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J24">
-        <v>0.33353195364945</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>18.57371366666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N24">
-        <v>55.721141</v>
+        <v>0.329168</v>
       </c>
       <c r="O24">
-        <v>0.1409815740273963</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P24">
-        <v>0.1718306167937836</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q24">
-        <v>854.735547505463</v>
+        <v>0.1595663824533334</v>
       </c>
       <c r="R24">
-        <v>5128.413285032779</v>
+        <v>1.43609744208</v>
       </c>
       <c r="S24">
-        <v>0.05630358530952944</v>
+        <v>5.676768859881627E-06</v>
       </c>
       <c r="T24">
-        <v>0.05731100131602063</v>
+        <v>1.075988130850803E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.01855949999999</v>
+        <v>1.45427</v>
       </c>
       <c r="H25">
-        <v>92.03711899999999</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I25">
-        <v>0.3993683975934914</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J25">
-        <v>0.33353195364945</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1273243333333333</v>
+        <v>119.609489</v>
       </c>
       <c r="N25">
-        <v>0.381973</v>
+        <v>239.218978</v>
       </c>
       <c r="O25">
-        <v>0.0009664402740059944</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P25">
-        <v>0.001177912996946202</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q25">
-        <v>5.859282409297833</v>
+        <v>173.94449156803</v>
       </c>
       <c r="R25">
-        <v>35.155694455787</v>
+        <v>1043.66694940818</v>
       </c>
       <c r="S25">
-        <v>0.0003859657035995887</v>
+        <v>0.006188287644924967</v>
       </c>
       <c r="T25">
-        <v>0.0003928716231005454</v>
+        <v>0.007819617368707142</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H26">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I26">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J26">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>5.437025499999999</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N26">
-        <v>10.874051</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O26">
-        <v>0.0412690981875492</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P26">
-        <v>0.0335329617600088</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q26">
-        <v>117.0245215378813</v>
+        <v>0.2486884108633333</v>
       </c>
       <c r="R26">
-        <v>702.1471292272878</v>
+        <v>2.23819569777</v>
       </c>
       <c r="S26">
-        <v>0.007708700253481447</v>
+        <v>8.847393823791776E-06</v>
       </c>
       <c r="T26">
-        <v>0.007846628734978796</v>
+        <v>1.676955849063961E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.52362933333333</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H27">
-        <v>64.570888</v>
+        <v>18.224269</v>
       </c>
       <c r="I27">
-        <v>0.1867911001701303</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J27">
-        <v>0.2339974855527565</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>42.07421266666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N27">
-        <v>126.222638</v>
+        <v>67.993515</v>
       </c>
       <c r="O27">
-        <v>0.3193593286815545</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P27">
-        <v>0.3892403018250912</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q27">
-        <v>905.5897579291716</v>
+        <v>206.5220179359225</v>
       </c>
       <c r="R27">
-        <v>8150.307821362544</v>
+        <v>1239.132107615535</v>
       </c>
       <c r="S27">
-        <v>0.05965348035402182</v>
+        <v>0.007347272917222599</v>
       </c>
       <c r="T27">
-        <v>0.09108125190286735</v>
+        <v>0.009284129344450024</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.52362933333333</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H28">
-        <v>64.570888</v>
+        <v>18.224269</v>
       </c>
       <c r="I28">
-        <v>0.1867911001701303</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J28">
-        <v>0.2339974855527565</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01285266666666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N28">
-        <v>0.038558</v>
+        <v>126.222638</v>
       </c>
       <c r="O28">
-        <v>9.755664427884464E-05</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P28">
-        <v>0.0001189036118685133</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q28">
-        <v>0.2766360332782222</v>
+        <v>255.5905898668468</v>
       </c>
       <c r="R28">
-        <v>2.489724299504</v>
+        <v>2300.315308801622</v>
       </c>
       <c r="S28">
-        <v>1.822271291375144E-05</v>
+        <v>0.009092947268258274</v>
       </c>
       <c r="T28">
-        <v>2.782314620037302E-05</v>
+        <v>0.01723498626875949</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.52362933333333</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H29">
-        <v>64.570888</v>
+        <v>18.224269</v>
       </c>
       <c r="I29">
-        <v>0.1867911001701303</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J29">
-        <v>0.2339974855527565</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>65.52055350000001</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N29">
-        <v>131.041107</v>
+        <v>0.329168</v>
       </c>
       <c r="O29">
-        <v>0.4973260021852153</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P29">
-        <v>0.4040993030123017</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q29">
-        <v>1410.240107248836</v>
+        <v>0.6665384642435556</v>
       </c>
       <c r="R29">
-        <v>8461.440643493017</v>
+        <v>5.998846178192</v>
       </c>
       <c r="S29">
-        <v>0.09289607109138899</v>
+        <v>2.371291959844826E-05</v>
       </c>
       <c r="T29">
-        <v>0.09455822081850006</v>
+        <v>4.494602592694209E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.52362933333333</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H30">
-        <v>64.570888</v>
+        <v>18.224269</v>
       </c>
       <c r="I30">
-        <v>0.1867911001701303</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J30">
-        <v>0.2339974855527565</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.57371366666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N30">
-        <v>55.721141</v>
+        <v>239.218978</v>
       </c>
       <c r="O30">
-        <v>0.1409815740273963</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P30">
-        <v>0.1718306167937836</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q30">
-        <v>399.7737283048008</v>
+        <v>726.5985008295137</v>
       </c>
       <c r="R30">
-        <v>3597.963554743208</v>
+        <v>4359.591004977082</v>
       </c>
       <c r="S30">
-        <v>0.02633410331629402</v>
+        <v>0.02584962872334323</v>
       </c>
       <c r="T30">
-        <v>0.04020793227072461</v>
+        <v>0.03266399646200296</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.52362933333333</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H31">
-        <v>64.570888</v>
+        <v>18.224269</v>
       </c>
       <c r="I31">
-        <v>0.1867911001701303</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J31">
-        <v>0.2339974855527565</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1273243333333333</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N31">
-        <v>0.381973</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O31">
-        <v>0.0009664402740059944</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P31">
-        <v>0.001177912996946202</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q31">
-        <v>2.740481755780444</v>
+        <v>1.038817756619222</v>
       </c>
       <c r="R31">
-        <v>24.664335802024</v>
+        <v>9.349359809572999</v>
       </c>
       <c r="S31">
-        <v>0.0001805224420303019</v>
+        <v>3.6957209916022E-05</v>
       </c>
       <c r="T31">
-        <v>0.000275628679485323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H32">
-        <v>22.745873</v>
-      </c>
-      <c r="I32">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J32">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.437025499999999</v>
-      </c>
-      <c r="N32">
-        <v>10.874051</v>
-      </c>
-      <c r="O32">
-        <v>0.0412690981875492</v>
-      </c>
-      <c r="P32">
-        <v>0.0335329617600088</v>
-      </c>
-      <c r="Q32">
-        <v>41.22329717358715</v>
-      </c>
-      <c r="R32">
-        <v>247.3397830415229</v>
-      </c>
-      <c r="S32">
-        <v>0.00271548250909538</v>
-      </c>
-      <c r="T32">
-        <v>0.002764069477935294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H33">
-        <v>22.745873</v>
-      </c>
-      <c r="I33">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J33">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>42.07421266666667</v>
-      </c>
-      <c r="N33">
-        <v>126.222638</v>
-      </c>
-      <c r="O33">
-        <v>0.3193593286815545</v>
-      </c>
-      <c r="P33">
-        <v>0.3892403018250912</v>
-      </c>
-      <c r="Q33">
-        <v>319.0048992969971</v>
-      </c>
-      <c r="R33">
-        <v>2871.044093672974</v>
-      </c>
-      <c r="S33">
-        <v>0.02101365693066782</v>
-      </c>
-      <c r="T33">
-        <v>0.03208446797980584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H34">
-        <v>22.745873</v>
-      </c>
-      <c r="I34">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J34">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01285266666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.038558</v>
-      </c>
-      <c r="O34">
-        <v>9.755664427884464E-05</v>
-      </c>
-      <c r="P34">
-        <v>0.0001189036118685133</v>
-      </c>
-      <c r="Q34">
-        <v>0.0974483745704444</v>
-      </c>
-      <c r="R34">
-        <v>0.8770353711339998</v>
-      </c>
-      <c r="S34">
-        <v>6.41917010110888E-06</v>
-      </c>
-      <c r="T34">
-        <v>9.801038355460082E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H35">
-        <v>22.745873</v>
-      </c>
-      <c r="I35">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J35">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>65.52055350000001</v>
-      </c>
-      <c r="N35">
-        <v>131.041107</v>
-      </c>
-      <c r="O35">
-        <v>0.4973260021852153</v>
-      </c>
-      <c r="P35">
-        <v>0.4040993030123017</v>
-      </c>
-      <c r="Q35">
-        <v>496.7740629335684</v>
-      </c>
-      <c r="R35">
-        <v>2980.644377601411</v>
-      </c>
-      <c r="S35">
-        <v>0.03272375989693227</v>
-      </c>
-      <c r="T35">
-        <v>0.03330927215750166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H36">
-        <v>22.745873</v>
-      </c>
-      <c r="I36">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J36">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>18.57371366666667</v>
-      </c>
-      <c r="N36">
-        <v>55.721141</v>
-      </c>
-      <c r="O36">
-        <v>0.1409815740273963</v>
-      </c>
-      <c r="P36">
-        <v>0.1718306167937836</v>
-      </c>
-      <c r="Q36">
-        <v>140.8251107334547</v>
-      </c>
-      <c r="R36">
-        <v>1267.425996601093</v>
-      </c>
-      <c r="S36">
-        <v>0.009276505065274967</v>
-      </c>
-      <c r="T36">
-        <v>0.01416372841306602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>7.581957666666665</v>
-      </c>
-      <c r="H37">
-        <v>22.745873</v>
-      </c>
-      <c r="I37">
-        <v>0.06579941477651759</v>
-      </c>
-      <c r="J37">
-        <v>0.08242843258872844</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.1273243333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.381973</v>
-      </c>
-      <c r="O37">
-        <v>0.0009664402740059944</v>
-      </c>
-      <c r="P37">
-        <v>0.001177912996946202</v>
-      </c>
-      <c r="Q37">
-        <v>0.9653677052698888</v>
-      </c>
-      <c r="R37">
-        <v>8.688309347428998</v>
-      </c>
-      <c r="S37">
-        <v>6.359120444605173E-05</v>
-      </c>
-      <c r="T37">
-        <v>9.70935220641671E-05</v>
+        <v>7.00495655196193E-05</v>
       </c>
     </row>
   </sheetData>
